--- a/WIP/美利坚合众国设定.xlsx
+++ b/WIP/美利坚合众国设定.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="时间线" sheetId="2" r:id="rId2"/>
+    <sheet name="政治国策" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +28,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Lenovo</author>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  - 裁定辛克利案
+  - 修订协定
+  - 削减支出</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  - 裁定辛克利案
+  - 修订协定
+  - 削减支出
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>1931年开局</t>
   </si>
@@ -66,13 +106,87 @@
     <t>1-3月</t>
   </si>
   <si>
-    <t>处理两个案件（并行）</t>
+    <t>处理两个案件：
+哈里·辛克利石油开采案
+衣阿华州</t>
   </si>
   <si>
     <t>4月</t>
   </si>
   <si>
     <t>德国经济危机爆发</t>
+  </si>
+  <si>
+    <t>1932年</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>大选开始并计票</t>
+  </si>
+  <si>
+    <t>1933年</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>新总统正式上任</t>
+  </si>
+  <si>
+    <t>7天</t>
+  </si>
+  <si>
+    <t>14天</t>
+  </si>
+  <si>
+    <t>28天</t>
+  </si>
+  <si>
+    <t>35天</t>
+  </si>
+  <si>
+    <t>修订美日贸易协定</t>
+  </si>
+  <si>
+    <t>裁定辛克利案</t>
+  </si>
+  <si>
+    <t>削减陆军支出</t>
+  </si>
+  <si>
+    <t>70天</t>
+  </si>
+  <si>
+    <t>触发事件“1920年代的美日贸易”</t>
+  </si>
+  <si>
+    <t>触发事件“最高法院裁定辛克利案”</t>
+  </si>
+  <si>
+    <t>触发事件“美国陆军现状”</t>
+  </si>
+  <si>
+    <t>100天</t>
+  </si>
+  <si>
+    <t>进行期间触发事件</t>
+  </si>
+  <si>
+    <t>推动经济放任</t>
+  </si>
+  <si>
+    <t>&lt;-!-&gt;</t>
+  </si>
+  <si>
+    <t>修订反垄断法</t>
+  </si>
+  <si>
+    <t>获得“经济放任”（经济法案修改：+100%）</t>
+  </si>
+  <si>
+    <t>触发事件“《克莱顿法修正案》在国会进行表决”</t>
   </si>
 </sst>
 </file>
@@ -85,13 +199,42 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="楷体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -249,8 +392,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +407,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,12 +640,38 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,156 +792,207 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,6 +1262,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1250,67 +1528,67 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.3333333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="1" width="38.3333333333333" style="22" customWidth="1"/>
+    <col min="2" max="2" width="35" style="22" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.4" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" ht="17.4" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="17.4" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="17.4" spans="1:1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="20"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12"/>
@@ -1328,41 +1606,165 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="84.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="14.1111111111111" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.4444444444444" style="18" customWidth="1"/>
+    <col min="3" max="3" width="84.3333333333333" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="52.2" spans="1:3">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.7777777777778" defaultRowHeight="22.2"/>
+  <cols>
+    <col min="1" max="16384" width="30.7777777777778" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="31.2" spans="1:9">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
+      <c r="F8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="31.2" spans="6:8">
+      <c r="F9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>